--- a/PCB/BOM_TO_SUBMIT.xlsx
+++ b/PCB/BOM_TO_SUBMIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6397544efa21678e/Desktop/GitHub/EEE3088F-ENVIRO-HAT-SENSOR/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{EB569677-EC70-4B41-9179-1C8BECED5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481C8BC1-D853-4E05-83DC-F005147E6B04}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{EB569677-EC70-4B41-9179-1C8BECED5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7FF9B3-2B89-4B19-A97E-8AEE34411C23}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{A5E06026-5FD5-4E16-AA6F-79CD172404A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Footprint</t>
   </si>
@@ -59,9 +59,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>C1525</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -255,6 +252,15 @@
   </si>
   <si>
     <t>C1206</t>
+  </si>
+  <si>
+    <t>C17513</t>
+  </si>
+  <si>
+    <t>C1945</t>
+  </si>
+  <si>
+    <t>C1848</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2407BF0-D469-42A8-8768-DE7E0C5225D9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -663,36 +671,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -703,16 +711,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -726,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>7.51E-2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -749,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -766,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -783,16 +791,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -803,16 +811,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -823,16 +831,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -843,16 +851,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -863,16 +871,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -883,16 +891,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -903,16 +911,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -923,16 +931,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
         <v>0.01</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -943,16 +951,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <v>0.01</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -963,16 +971,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
         <v>0.01</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -983,16 +991,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
         <v>0.01</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1003,16 +1011,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>0.01</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -1023,16 +1031,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1">
         <v>0.01</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1043,16 +1051,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <v>0.01</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1063,16 +1071,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>0.01</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1083,16 +1091,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>0.01</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -1103,16 +1111,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1">
         <v>0.01</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -1126,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>0.01</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -1146,13 +1154,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -1163,16 +1171,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1">
         <v>0.71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -1183,16 +1191,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -1203,16 +1211,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -1223,16 +1231,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
@@ -1243,7 +1251,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>17.329999999999998</v>
@@ -1251,7 +1259,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>41.33</v>
@@ -1259,16 +1267,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C13" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAAB94F00B994D47B760AB7E025E4A91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d97c659de5aaad3d1276e36681a4e58c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5d70100d-4e04-4666-9a63-163a27853583" xmlns:ns4="4ccb3cf0-ef61-455a-9d57-9fb0e9cb553b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dcd80fc180ed59807a6b494b15ba1c5" ns3:_="" ns4:_="">
     <xsd:import namespace="5d70100d-4e04-4666-9a63-163a27853583"/>
@@ -1503,16 +1521,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8401C0-C306-48D5-858F-495BFD7F7AD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEBB9DD-9C10-4299-A3D2-1F9E53EC8245}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1529,12 +1546,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8401C0-C306-48D5-858F-495BFD7F7AD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>